--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -726,7 +726,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="37.8515625"/>
+    <col customWidth="1" min="1" max="1" width="33.8515625"/>
     <col customWidth="1" min="2" max="2" width="63.140625"/>
   </cols>
   <sheetData>
@@ -808,7 +808,7 @@
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -866,7 +866,7 @@
       <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="4" t="s">
         <v>29</v>
       </c>
     </row>
